--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3200.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3200.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.915301669724257</v>
+        <v>1.584298133850098</v>
       </c>
       <c r="B1">
-        <v>1.587343475210665</v>
+        <v>2.301728248596191</v>
       </c>
       <c r="C1">
-        <v>5.406376656779998</v>
+        <v>2.702759981155396</v>
       </c>
       <c r="D1">
-        <v>4.874283304893255</v>
+        <v>3.266005992889404</v>
       </c>
       <c r="E1">
-        <v>1.819204210197902</v>
+        <v>1.648396253585815</v>
       </c>
     </row>
   </sheetData>
